--- a/2nd sem/Daily_Attendance_Sheet.xlsx
+++ b/2nd sem/Daily_Attendance_Sheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Md gulzar\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9C7117-9986-401E-9A40-312E361290B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,16 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -506,6 +500,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
